--- a/tests.xlsx
+++ b/tests.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcus\Projects\Hasxcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcus\Projects\Haxcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B05D40-59F6-40C8-A976-549C943C90B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C9F054-F81F-4E0A-8152-CD24D85D9637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="660" windowWidth="16760" windowHeight="8940" xr2:uid="{B5F9E055-31D7-434A-8084-17B12F6C2AA8}"/>
+    <workbookView xWindow="2310" yWindow="570" windowWidth="16760" windowHeight="8940" xr2:uid="{B5F9E055-31D7-434A-8084-17B12F6C2AA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -371,61 +371,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B553B623-5B94-41A1-AAED-3747FE5E4EDA}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
-        <f>_xll.hkRawRead()</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="e">
-        <f ca="1">IF(A1="chain","",hkAssign("double","(*2)"))</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="e">
-        <f ca="1">_xll.hkAssign("four", "{} $ {} 1", A2,A2)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <f ca="1">_xll.hxGHCIVersion()</f>
+        <v xml:space="preserve">GHCi, version 8.6.5: http://www.haskell.org/ghc/  :? for help_x000D_
+</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f ca="1">_xll.hxAssign("double","(*2)")</f>
+        <v>double</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f ca="1">_xll.hxAssign("four", "{} $ {} 1", A2,A2)</f>
+        <v>four</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
-        <f>_xll.hkLoggingOn()</f>
+        <f ca="1">_xll.hxLoggingOn()</f>
         <v>Logging on</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="e">
-        <f ca="1">_xll.hkDisplay(A3)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f ca="1">_xll.hxShow(A3)</f>
+        <v>4_x000D_</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
-        <f>IF(A1="chain","",_xll.hkRaw(":l C:\Users\marcus\Projects\Hasxcel\test.hs"))</f>
-        <v>[1 of 1] Compiling Main             ( C:\Users\marcus\Projects\Hasxcel\test.hs, interpreted )_x000D_
+        <f ca="1">_xll.hxRaw(":l C:\Users\marcus\Projects\Haxcel\test.hs")</f>
+        <v>[1 of 1] Compiling Main             ( C:\Users\marcus\Projects\Haxcel\test.hs, interpreted )_x000D_
 Ok, one module loaded._x000D_</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
-        <f>IF(FIND("Ok",A6), _xll.hkAssign("primes", "primes1"), "")</f>
+        <f ca="1">IF(FIND("Ok",A6), _xll.hxAssign("primes", "primes1"), "")</f>
         <v>primes</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
-        <f>_xll.hkDisplay("take 4 {}",A7)</f>
-        <v>[2,3,5,7]_x000D_</v>
+        <f t="array" aca="1" ref="A8:A12" ca="1">_xll.hxShow(A7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="str">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <f ca="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <f ca="1">_xll.hxAssign("ints", "ints_from 0 where ints_from n = [n..] : (ints_from (n+1))")</f>
+        <v>ints</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="str">
+        <f t="array" aca="1" ref="A14:E16" ca="1">_xll.hxShow(A13)</f>
+        <v>0</v>
+      </c>
+      <c r="B14" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="C14" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="D14" t="str">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="E14" t="str">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="B15" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="C15" t="str">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="D15" t="str">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="E15" t="str">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="B16" t="str">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="C16" t="str">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="D16" t="str">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="E16" t="str">
+        <f ca="1"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcus\Projects\Haxcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C9F054-F81F-4E0A-8152-CD24D85D9637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A0F614-81A3-44D8-B6E0-DDA5041A8E45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="570" windowWidth="16760" windowHeight="8940" xr2:uid="{B5F9E055-31D7-434A-8084-17B12F6C2AA8}"/>
   </bookViews>
@@ -374,7 +374,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcus\Projects\Haxcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A0F614-81A3-44D8-B6E0-DDA5041A8E45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587A46FA-4ED7-446A-980C-1BA45A67220C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="570" windowWidth="16760" windowHeight="8940" xr2:uid="{B5F9E055-31D7-434A-8084-17B12F6C2AA8}"/>
   </bookViews>
@@ -374,7 +374,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -412,7 +412,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
-        <f ca="1">_xll.hxRaw(":l C:\Users\marcus\Projects\Haxcel\test.hs")</f>
+        <f ca="1">_xll.hxLoad("C:\Users\marcus\Projects\Haxcel\test.hs")</f>
         <v>[1 of 1] Compiling Main             ( C:\Users\marcus\Projects\Haxcel\test.hs, interpreted )_x000D_
 Ok, one module loaded._x000D_</v>
       </c>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcus\Projects\Haxcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587A46FA-4ED7-446A-980C-1BA45A67220C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E5385A-9CD0-47C1-B8FC-45DD8223DFA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="570" windowWidth="16760" windowHeight="8940" xr2:uid="{B5F9E055-31D7-434A-8084-17B12F6C2AA8}"/>
   </bookViews>
@@ -374,7 +374,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -406,13 +406,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
-        <f ca="1">_xll.hxShow(A3)</f>
+        <f ca="1">_xll.hxEval(A3)</f>
         <v>4_x000D_</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
-        <f ca="1">_xll.hxLoad("C:\Users\marcus\Projects\Haxcel\test.hs")</f>
+        <f t="array" aca="1" ref="A6" ca="1">_xll.hxLoad("C:\Users\marcus\Projects\Haxcel\test.hs")</f>
         <v>[1 of 1] Compiling Main             ( C:\Users\marcus\Projects\Haxcel\test.hs, interpreted )_x000D_
 Ok, one module loaded._x000D_</v>
       </c>
@@ -424,31 +424,31 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="str">
-        <f t="array" aca="1" ref="A8:A12" ca="1">_xll.hxShow(A7)</f>
+      <c r="A8">
+        <f t="array" aca="1" ref="A8:A12" ca="1">_xll.hxEval(A7)</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="str">
+      <c r="A9">
         <f ca="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="str">
+      <c r="A10">
         <f ca="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="str">
+      <c r="A11">
         <f ca="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="str">
+      <c r="A12">
         <f ca="1"/>
         <v>11</v>
       </c>
@@ -460,67 +460,67 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="str">
-        <f t="array" aca="1" ref="A14:E16" ca="1">_xll.hxShow(A13)</f>
+      <c r="A14">
+        <f t="array" aca="1" ref="A14:E16" ca="1">_xll.hxEval(A13)</f>
         <v>0</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14">
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14">
         <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14">
         <f ca="1"/>
         <v>3</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E14">
         <f ca="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="str">
+      <c r="A15">
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15">
         <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15">
         <f ca="1"/>
         <v>3</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E15">
         <f ca="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="str">
+      <c r="A16">
         <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16">
         <f ca="1"/>
         <v>3</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E16">
         <f ca="1"/>
         <v>6</v>
       </c>
